--- a/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
+++ b/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B56" s="65">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B57" s="65">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58">
